--- a/projetoFinal/QuestoesGuias.xlsx
+++ b/projetoFinal/QuestoesGuias.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Identificação do grupo</t>
   </si>
@@ -52,13 +52,16 @@
     <t>Vida Intelectual</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Produtividade</t>
+  </si>
+  <si>
+    <t>Livros</t>
   </si>
   <si>
     <t>Desafio:</t>
   </si>
   <si>
-    <t>Lidar com os desafios individuais das pessoas na hora do estudo</t>
+    <t>Lidar com os desafios individuais das pessoas na hora de estudo</t>
   </si>
   <si>
     <t>Solução:</t>
@@ -139,7 +142,7 @@
     <t>Já existe algo semelhante?</t>
   </si>
   <si>
-    <t>Existem checklists mais gerais e aplicativos para estimulo intelectual geral, mas nada personalizado</t>
+    <t>Existem checklists mais gerais e aplicativos para estimulo intelectual geral</t>
   </si>
   <si>
     <t>Se sim, quem é a concorrência?</t>
@@ -535,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -604,9 +607,6 @@
     </xf>
     <xf borderId="14" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1154,13 +1154,13 @@
       <c r="C9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>11</v>
+      <c r="E9" s="22" t="s">
+        <v>12</v>
       </c>
-      <c r="F9" s="24"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1213,14 +1213,14 @@
     <row r="11" ht="21.75" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="24"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1270,17 +1270,17 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" ht="21.75" customHeight="1">
+    <row r="13" ht="29.25" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="C13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -28946,8 +28946,8 @@
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C11:E11"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:E9">
@@ -28979,13 +28979,13 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="5.29"/>
     <col customWidth="1" min="2" max="2" width="68.14"/>
-    <col customWidth="1" min="3" max="3" width="67.43"/>
+    <col customWidth="1" min="3" max="3" width="77.86"/>
     <col customWidth="1" min="4" max="26" width="16.29"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -29012,12 +29012,12 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" ht="36.0" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29" t="s">
-        <v>17</v>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28" t="s">
+        <v>18</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>18</v>
+      <c r="C2" s="28" t="s">
+        <v>19</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -29044,12 +29044,12 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31" t="s">
-        <v>19</v>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30" t="s">
+        <v>20</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>20</v>
+      <c r="C3" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -29076,12 +29076,12 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" ht="21.75" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34" t="s">
-        <v>21</v>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33" t="s">
+        <v>22</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>22</v>
+      <c r="C4" s="34" t="s">
+        <v>23</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -29108,12 +29108,12 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" ht="36.0" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="36" t="s">
-        <v>23</v>
+      <c r="A5" s="32"/>
+      <c r="B5" s="35" t="s">
+        <v>24</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>24</v>
+      <c r="C5" s="36" t="s">
+        <v>25</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -29140,12 +29140,12 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" ht="21.75" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34" t="s">
-        <v>25</v>
+      <c r="A6" s="32"/>
+      <c r="B6" s="33" t="s">
+        <v>26</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>26</v>
+      <c r="C6" s="34" t="s">
+        <v>27</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -29172,12 +29172,12 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" ht="21.75" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="36" t="s">
-        <v>27</v>
+      <c r="A7" s="32"/>
+      <c r="B7" s="35" t="s">
+        <v>28</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>28</v>
+      <c r="C7" s="36" t="s">
+        <v>29</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -29204,12 +29204,12 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" ht="21.75" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34" t="s">
-        <v>29</v>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33" t="s">
+        <v>30</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>30</v>
+      <c r="C8" s="34" t="s">
+        <v>31</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -29236,12 +29236,12 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" ht="21.75" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="36" t="s">
-        <v>31</v>
+      <c r="A9" s="32"/>
+      <c r="B9" s="35" t="s">
+        <v>32</v>
       </c>
-      <c r="C9" s="37" t="s">
-        <v>32</v>
+      <c r="C9" s="36" t="s">
+        <v>33</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -29268,12 +29268,12 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" ht="62.25" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34" t="s">
-        <v>33</v>
+      <c r="A10" s="32"/>
+      <c r="B10" s="33" t="s">
+        <v>34</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>34</v>
+      <c r="C10" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -29300,12 +29300,12 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" ht="21.75" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="38" t="s">
-        <v>35</v>
+      <c r="A11" s="32"/>
+      <c r="B11" s="37" t="s">
+        <v>36</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>36</v>
+      <c r="C11" s="36" t="s">
+        <v>37</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -29332,12 +29332,12 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" ht="37.5" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="39" t="s">
-        <v>37</v>
+      <c r="A12" s="32"/>
+      <c r="B12" s="38" t="s">
+        <v>38</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>38</v>
+      <c r="C12" s="34" t="s">
+        <v>39</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -29364,12 +29364,12 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" ht="37.5" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="38" t="s">
-        <v>39</v>
+      <c r="A13" s="32"/>
+      <c r="B13" s="37" t="s">
+        <v>40</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>40</v>
+      <c r="C13" s="36" t="s">
+        <v>41</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -29396,12 +29396,12 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" ht="21.75" customHeight="1">
-      <c r="A14" s="33"/>
-      <c r="B14" s="40" t="s">
-        <v>41</v>
+      <c r="A14" s="32"/>
+      <c r="B14" s="39" t="s">
+        <v>42</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>42</v>
+      <c r="C14" s="34" t="s">
+        <v>43</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -29428,12 +29428,12 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" ht="38.25" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="38" t="s">
-        <v>43</v>
+      <c r="A15" s="32"/>
+      <c r="B15" s="37" t="s">
+        <v>44</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>44</v>
+      <c r="C15" s="36" t="s">
+        <v>45</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -29460,12 +29460,12 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" ht="38.25" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="39" t="s">
-        <v>45</v>
+      <c r="A16" s="32"/>
+      <c r="B16" s="38" t="s">
+        <v>46</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>46</v>
+      <c r="C16" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -29492,12 +29492,12 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" ht="31.5" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" s="38" t="s">
-        <v>47</v>
+      <c r="A17" s="32"/>
+      <c r="B17" s="37" t="s">
+        <v>48</v>
       </c>
-      <c r="C17" s="41" t="s">
-        <v>48</v>
+      <c r="C17" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -29524,12 +29524,12 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" ht="30.0" customHeight="1">
-      <c r="A18" s="33"/>
-      <c r="B18" s="39" t="s">
-        <v>49</v>
+      <c r="A18" s="32"/>
+      <c r="B18" s="38" t="s">
+        <v>50</v>
       </c>
-      <c r="C18" s="42" t="s">
-        <v>50</v>
+      <c r="C18" s="41" t="s">
+        <v>51</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -29556,9 +29556,9 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" ht="21.75" customHeight="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -29584,9 +29584,9 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" ht="21.75" customHeight="1">
-      <c r="A20" s="33"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -29612,9 +29612,9 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" ht="21.75" customHeight="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -29640,9 +29640,9 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" ht="21.75" customHeight="1">
-      <c r="A22" s="33"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -29668,9 +29668,9 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" ht="21.75" customHeight="1">
-      <c r="A23" s="33"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
